--- a/data/math/math-34.xlsx
+++ b/data/math/math-34.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -551,7 +551,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>73</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -812,7 +812,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1334,7 +1334,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1798,7 +1798,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>109</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>128</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>142</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2117,7 +2117,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>143</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>151</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>155</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>157</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>166</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2407,7 +2407,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>183</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>184</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>191</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>199</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2610,7 +2610,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2755,7 +2755,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2987,7 +2987,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3103,7 +3103,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3190,7 +3190,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>152</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3219,7 +3219,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3277,7 +3277,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>159</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>161</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>165</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3364,7 +3364,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>167</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3393,7 +3393,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>173</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3422,7 +3422,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>175</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>177</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>181</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>189</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>197</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>213</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3654,7 +3654,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3683,7 +3683,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>232</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3712,7 +3712,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4031,7 +4031,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4379,7 +4379,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>95</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4553,7 +4553,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>97</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4582,7 +4582,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4698,7 +4698,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>49</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>104</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -5104,7 +5104,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5220,7 +5220,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5249,7 +5249,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5365,7 +5365,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5423,7 +5423,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5452,7 +5452,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5481,7 +5481,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5510,7 +5510,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>68</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5539,7 +5539,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5568,7 +5568,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5655,7 +5655,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5829,7 +5829,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5887,7 +5887,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
